--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll3-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll3-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll3</t>
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H2">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I2">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J2">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N2">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q2">
-        <v>2.379196283186667</v>
+        <v>5.271018213617444</v>
       </c>
       <c r="R2">
-        <v>21.41276654868</v>
+        <v>47.439163922557</v>
       </c>
       <c r="S2">
-        <v>0.03866581466729796</v>
+        <v>0.0476793927900207</v>
       </c>
       <c r="T2">
-        <v>0.03866581466729796</v>
+        <v>0.04767939279002071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H3">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I3">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J3">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q3">
-        <v>4.080851863957</v>
+        <v>7.200097154246333</v>
       </c>
       <c r="R3">
-        <v>36.727666775613</v>
+        <v>64.80087438821701</v>
       </c>
       <c r="S3">
-        <v>0.06632048939027321</v>
+        <v>0.06512902183808252</v>
       </c>
       <c r="T3">
-        <v>0.0663204893902732</v>
+        <v>0.06512902183808253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H4">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I4">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J4">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N4">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q4">
-        <v>0.03012958844666667</v>
+        <v>0.266329428263</v>
       </c>
       <c r="R4">
-        <v>0.27116629602</v>
+        <v>2.396964854367</v>
       </c>
       <c r="S4">
-        <v>0.0004896548851868616</v>
+        <v>0.002409102929845204</v>
       </c>
       <c r="T4">
-        <v>0.0004896548851868615</v>
+        <v>0.002409102929845204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H5">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I5">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J5">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N5">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q5">
-        <v>18.618855814256</v>
+        <v>39.99746381058044</v>
       </c>
       <c r="R5">
-        <v>167.569702328304</v>
+        <v>359.977174295224</v>
       </c>
       <c r="S5">
-        <v>0.3025867320484052</v>
+        <v>0.3618000754963265</v>
       </c>
       <c r="T5">
-        <v>0.3025867320484052</v>
+        <v>0.3618000754963265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H6">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I6">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J6">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N6">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q6">
-        <v>0.065222862243</v>
+        <v>0.180760243218</v>
       </c>
       <c r="R6">
-        <v>0.587005760187</v>
+        <v>1.626842188962</v>
       </c>
       <c r="S6">
-        <v>0.001059977741803105</v>
+        <v>0.001635080412916253</v>
       </c>
       <c r="T6">
-        <v>0.001059977741803105</v>
+        <v>0.001635080412916253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.000448</v>
       </c>
       <c r="I7">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J7">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N7">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q7">
-        <v>2.59029565184</v>
+        <v>3.252565522624</v>
       </c>
       <c r="R7">
-        <v>23.31266086656</v>
+        <v>29.273089703616</v>
       </c>
       <c r="S7">
-        <v>0.04209652323153667</v>
+        <v>0.02942132674249263</v>
       </c>
       <c r="T7">
-        <v>0.04209652323153666</v>
+        <v>0.02942132674249264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.000448</v>
       </c>
       <c r="I8">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J8">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q8">
         <v>4.442934327744</v>
@@ -948,10 +948,10 @@
         <v>39.986408949696</v>
       </c>
       <c r="S8">
-        <v>0.07220491916094982</v>
+        <v>0.04018889754649352</v>
       </c>
       <c r="T8">
-        <v>0.07220491916094982</v>
+        <v>0.04018889754649353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,40 +980,40 @@
         <v>2.000448</v>
       </c>
       <c r="I9">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J9">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N9">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q9">
-        <v>0.03280290176</v>
+        <v>0.164342804544</v>
       </c>
       <c r="R9">
-        <v>0.29522611584</v>
+        <v>1.479085240896</v>
       </c>
       <c r="S9">
-        <v>0.0005331005806309214</v>
+        <v>0.001486575233191875</v>
       </c>
       <c r="T9">
-        <v>0.0005331005806309213</v>
+        <v>0.001486575233191875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>2.000448</v>
       </c>
       <c r="I10">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J10">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N10">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q10">
-        <v>20.270854321152</v>
+        <v>24.681070432768</v>
       </c>
       <c r="R10">
-        <v>182.437688890368</v>
+        <v>222.129633894912</v>
       </c>
       <c r="S10">
-        <v>0.3294343984430161</v>
+        <v>0.2232544840391475</v>
       </c>
       <c r="T10">
-        <v>0.329434398443016</v>
+        <v>0.2232544840391476</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>2.000448</v>
       </c>
       <c r="I11">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J11">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N11">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q11">
-        <v>0.071009902656</v>
+        <v>0.111540979584</v>
       </c>
       <c r="R11">
-        <v>0.639089123904</v>
+        <v>1.003868816256</v>
       </c>
       <c r="S11">
-        <v>0.00115402657403376</v>
+        <v>0.001008952343217078</v>
       </c>
       <c r="T11">
-        <v>0.00115402657403376</v>
+        <v>0.001008952343217078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H12">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I12">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J12">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N12">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q12">
-        <v>0.5530726026222222</v>
+        <v>0.8901627685512222</v>
       </c>
       <c r="R12">
-        <v>4.9776534236</v>
+        <v>8.011464916961001</v>
       </c>
       <c r="S12">
-        <v>0.008988330597889203</v>
+        <v>0.008052034458761285</v>
       </c>
       <c r="T12">
-        <v>0.008988330597889199</v>
+        <v>0.008052034458761287</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H13">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I13">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J13">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q13">
-        <v>0.9486427737233334</v>
+        <v>1.215943136015667</v>
       </c>
       <c r="R13">
-        <v>8.537784963510001</v>
+        <v>10.943488224141</v>
       </c>
       <c r="S13">
-        <v>0.01541699015481357</v>
+        <v>0.01099890534292664</v>
       </c>
       <c r="T13">
-        <v>0.01541699015481357</v>
+        <v>0.01099890534292665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H14">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I14">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J14">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N14">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q14">
-        <v>0.007003982822222222</v>
+        <v>0.044977370899</v>
       </c>
       <c r="R14">
-        <v>0.0630358454</v>
+        <v>0.404796338091</v>
       </c>
       <c r="S14">
-        <v>0.00011382612844967</v>
+        <v>0.0004068462006478487</v>
       </c>
       <c r="T14">
-        <v>0.00011382612844967</v>
+        <v>0.0004068462006478487</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H15">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I15">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J15">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N15">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q15">
-        <v>4.328175491786667</v>
+        <v>6.754720184550222</v>
       </c>
       <c r="R15">
-        <v>38.95357942608</v>
+        <v>60.792481660952</v>
       </c>
       <c r="S15">
-        <v>0.07033990116562164</v>
+        <v>0.06110033086848777</v>
       </c>
       <c r="T15">
-        <v>0.07033990116562162</v>
+        <v>0.06110033086848778</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H16">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I16">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J16">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N16">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q16">
-        <v>0.01516183361</v>
+        <v>0.030526557114</v>
       </c>
       <c r="R16">
-        <v>0.13645650249</v>
+        <v>0.274739014026</v>
       </c>
       <c r="S16">
-        <v>0.0002464044906776083</v>
+        <v>0.0002761302746792296</v>
       </c>
       <c r="T16">
-        <v>0.0002464044906776082</v>
+        <v>0.0002761302746792296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H17">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I17">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J17">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N17">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q17">
-        <v>0.2927971252844445</v>
+        <v>0.5157527472521111</v>
       </c>
       <c r="R17">
-        <v>2.63517412756</v>
+        <v>4.641774725269</v>
       </c>
       <c r="S17">
-        <v>0.004758430172983634</v>
+        <v>0.004665280373199333</v>
       </c>
       <c r="T17">
-        <v>0.004758430172983634</v>
+        <v>0.004665280373199334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H18">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I18">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J18">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q18">
-        <v>0.5022123239356667</v>
+        <v>0.7045071250543333</v>
       </c>
       <c r="R18">
-        <v>4.519910915421001</v>
+        <v>6.340564125489</v>
       </c>
       <c r="S18">
-        <v>0.008161768231631844</v>
+        <v>0.006372672333412601</v>
       </c>
       <c r="T18">
-        <v>0.008161768231631842</v>
+        <v>0.006372672333412602</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,46 +1594,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H19">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I19">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J19">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N19">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q19">
-        <v>0.003707914704444444</v>
+        <v>0.026059506671</v>
       </c>
       <c r="R19">
-        <v>0.03337123234</v>
+        <v>0.234535560039</v>
       </c>
       <c r="S19">
-        <v>6.025965313470074E-05</v>
+        <v>0.0002357232329933571</v>
       </c>
       <c r="T19">
-        <v>6.025965313470074E-05</v>
+        <v>0.0002357232329933571</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H20">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I20">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J20">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N20">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q20">
-        <v>2.291339935685333</v>
+        <v>3.913627501823111</v>
       </c>
       <c r="R20">
-        <v>20.622059421168</v>
+        <v>35.222647516408</v>
       </c>
       <c r="S20">
-        <v>0.03723800592623758</v>
+        <v>0.03540101273245087</v>
       </c>
       <c r="T20">
-        <v>0.03723800592623758</v>
+        <v>0.03540101273245087</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H21">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I21">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J21">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N21">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q21">
-        <v>0.008026688131</v>
+        <v>0.017686827906</v>
       </c>
       <c r="R21">
-        <v>0.072240193179</v>
+        <v>0.159181451154</v>
       </c>
       <c r="S21">
-        <v>0.0001304467554269024</v>
+        <v>0.0001599875357594197</v>
       </c>
       <c r="T21">
-        <v>0.0001304467554269024</v>
+        <v>0.0001599875357594197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J22">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.877755666666666</v>
+      </c>
+      <c r="N22">
+        <v>14.633267</v>
+      </c>
+      <c r="O22">
+        <v>0.09961167132870688</v>
+      </c>
+      <c r="P22">
+        <v>0.09961167132870689</v>
+      </c>
+      <c r="Q22">
+        <v>1.082699166144444</v>
+      </c>
+      <c r="R22">
+        <v>9.7442924953</v>
+      </c>
+      <c r="S22">
+        <v>0.009793636964232933</v>
+      </c>
+      <c r="T22">
+        <v>0.009793636964232934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J23">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.662909</v>
+      </c>
+      <c r="N23">
+        <v>19.988727</v>
+      </c>
+      <c r="O23">
+        <v>0.1360673938501395</v>
+      </c>
+      <c r="P23">
+        <v>0.1360673938501395</v>
+      </c>
+      <c r="Q23">
+        <v>1.478943701033333</v>
+      </c>
+      <c r="R23">
+        <v>13.3104933093</v>
+      </c>
+      <c r="S23">
+        <v>0.01337789678922423</v>
+      </c>
+      <c r="T23">
+        <v>0.01337789678922423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J24">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.246459</v>
+      </c>
+      <c r="N24">
+        <v>0.739377</v>
+      </c>
+      <c r="O24">
+        <v>0.00503309197542868</v>
+      </c>
+      <c r="P24">
+        <v>0.00503309197542868</v>
+      </c>
+      <c r="Q24">
+        <v>0.05470568269999999</v>
+      </c>
+      <c r="R24">
+        <v>0.4923511442999999</v>
+      </c>
+      <c r="S24">
+        <v>0.0004948443787503948</v>
+      </c>
+      <c r="T24">
+        <v>0.0004948443787503948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J25">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.01331466666667</v>
+      </c>
+      <c r="N25">
+        <v>111.039944</v>
+      </c>
+      <c r="O25">
+        <v>0.7558718368280999</v>
+      </c>
+      <c r="P25">
+        <v>0.7558718368280999</v>
+      </c>
+      <c r="Q25">
+        <v>8.215722078844443</v>
+      </c>
+      <c r="R25">
+        <v>73.94149870959998</v>
+      </c>
+      <c r="S25">
+        <v>0.07431593369168724</v>
+      </c>
+      <c r="T25">
+        <v>0.07431593369168724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J26">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.167274</v>
+      </c>
+      <c r="N26">
+        <v>0.501822</v>
+      </c>
+      <c r="O26">
+        <v>0.00341600601762507</v>
+      </c>
+      <c r="P26">
+        <v>0.00341600601762507</v>
+      </c>
+      <c r="Q26">
+        <v>0.0371292522</v>
+      </c>
+      <c r="R26">
+        <v>0.3341632697999999</v>
+      </c>
+      <c r="S26">
+        <v>0.0003358554510530902</v>
+      </c>
+      <c r="T26">
+        <v>0.0003358554510530902</v>
       </c>
     </row>
   </sheetData>
